--- a/iki/kegiatan_2511.xlsx
+++ b/iki/kegiatan_2511.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\rsfatmawati\dokumen\iki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C61DF9-A4EF-4F4C-9971-F47E964D67F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A0D55-9ED9-479B-ACB5-8BC6BA5908CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FF6B3EB7-D6FE-4190-B99F-65762760D33A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{FF6B3EB7-D6FE-4190-B99F-65762760D33A}"/>
   </bookViews>
   <sheets>
     <sheet name="2508_Agustus" sheetId="1" r:id="rId1"/>
     <sheet name="2509_September" sheetId="2" r:id="rId2"/>
     <sheet name="2510_Oktober" sheetId="3" r:id="rId3"/>
     <sheet name="2511_November" sheetId="4" r:id="rId4"/>
+    <sheet name="2512_Desember" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>Fungsi potong stok Integrasi Retur Farmasi di SIMRSF</t>
   </si>
@@ -286,6 +287,12 @@
   </si>
   <si>
     <t>- perbaikan logika untuk konsul spesialis vs sub spesialis</t>
+  </si>
+  <si>
+    <t>proses pembentukan kunjungan, layanan dan order untuk hasil glukosa darah di rawat inap</t>
+  </si>
+  <si>
+    <t>Pengembangan Proses Rujuk/Kontrol/Konsul Internal di rawat jalan melalui CPPT</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D28A9F-6235-4CC0-B410-E27F753FBCC5}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2012,4 +2019,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D26DB5-F7AA-4D13-97C8-80532B97D9D7}">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>46383</v>
+      </c>
+      <c r="D3" s="11">
+        <v>46387</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46357</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46380</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="2">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="2">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45968</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45989</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>